--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2161.871843248975</v>
+        <v>430212.4968065466</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.871843248975</v>
+        <v>430212.4968065466</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85699.73622684676</v>
+        <v>5856679.145286278</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85699.73622684676</v>
+        <v>5856679.145286278</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190409360.085126</v>
+        <v>45480229.15077351</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14030.47379287954</v>
+        <v>1276894.103357346</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25685.2360223496</v>
+        <v>2146424.743387836</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37333.58371069095</v>
+        <v>3015955.383418327</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49238.63275945556</v>
+        <v>3884426.69132072</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61143.68624111108</v>
+        <v>4753069.26901031</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73048.55879425858</v>
+        <v>5621675.841926802</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84953.43134740608</v>
+        <v>6490282.414843291</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96858.3039005536</v>
+        <v>7358888.987759778</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108889.7441686394</v>
+        <v>8183938.769943994</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120992.1515733937</v>
+        <v>9022958.451575037</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133094.5589781481</v>
+        <v>9861978.133206079</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145196.9663829024</v>
+        <v>10700997.81483712</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157299.3737876568</v>
+        <v>11540017.49646817</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169401.7811924111</v>
+        <v>12379037.17809922</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181504.1885971657</v>
+        <v>13218056.85973026</v>
       </c>
     </row>
   </sheetData>
